--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rd2d2e007e4644180"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R427b5a0f8ec243d6"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R427b5a0f8ec243d6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R00c41379212c4dcc"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R00c41379212c4dcc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R58091c633f9c4703"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R58091c633f9c4703"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rff6bdf03129c456c"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -28,17 +28,17 @@
     <x:font>
       <x:b/>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
@@ -51,7 +51,7 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="ADD8E6"/>
+        <x:fgColor rgb="FFADD8E6"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rff6bdf03129c456c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R5f31d64e8f7f415e"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R5f31d64e8f7f415e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R6309b1eec3214f2f"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R6309b1eec3214f2f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rb9a3a3b604e04056"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rb9a3a3b604e04056"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R2308f1988a6846ff"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R2308f1988a6846ff"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R5a13c61b618246a8"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R5a13c61b618246a8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rc12090bab7104862"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rc12090bab7104862"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R713bb4ede9d34b36"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R713bb4ede9d34b36"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R6989c8228ce844e2"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R6989c8228ce844e2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R7f16af6550f84acf"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R7f16af6550f84acf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rcb6adca133994e5d"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rcb6adca133994e5d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R30ab26be818b47cc"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R30ab26be818b47cc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R30eba40deb1f428c"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R30eba40deb1f428c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R7997d9a1baa64411"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R7997d9a1baa64411"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R546a68bb23804bc4"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R546a68bb23804bc4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rcc134bcf04774838"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rcc134bcf04774838"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R39e03ce86bc241cd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R39e03ce86bc241cd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rcdcdb4aa431b470c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rcdcdb4aa431b470c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Ra0c2c54ed5f74295"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Ra0c2c54ed5f74295"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R66c0973c7bcc4a05"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R66c0973c7bcc4a05"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R14faec07e69a4559"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R14faec07e69a4559"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rc812fb17f79b4662"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rc812fb17f79b4662"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R316c3736f8fa4752"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R316c3736f8fa4752"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rd14b2feb6f84455a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rd14b2feb6f84455a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rdbdef37c17c44275"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rdbdef37c17c44275"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R028e5847de53411b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R028e5847de53411b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R5712498ec80940d2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R5712498ec80940d2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rb9f7a0a3c1544518"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rb9f7a0a3c1544518"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R59eca113b0d24fb4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R59eca113b0d24fb4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rb3e67ff6fa304c19"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rb3e67ff6fa304c19"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R77ec5d5fdfd14d5e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R77ec5d5fdfd14d5e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R41f330055ad64c3c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R41f330055ad64c3c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rbaa99c8fa3074669"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rbaa99c8fa3074669"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rf97f6ee098104274"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rf97f6ee098104274"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rd5e423362c444c0b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rd5e423362c444c0b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rf731edf0fc364d70"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rf731edf0fc364d70"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rb9e1ef88a73043e4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rb9e1ef88a73043e4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R0773aba5f61d4e04"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R0773aba5f61d4e04"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R2a685bdae2c540f0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R2a685bdae2c540f0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R3c14dfa277ab4053"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R3c14dfa277ab4053"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rab12aff09aa14fe0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/27_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rab12aff09aa14fe0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R0e20739c4362472b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
